--- a/my_25_02_2025.xlsx
+++ b/my_25_02_2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2025_00.51.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich tat es.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did it.</t>
   </si>
 </sst>
 </file>
@@ -419,6 +428,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
